--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N2">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O2">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P2">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q2">
-        <v>17.94748029118533</v>
+        <v>46.716067216</v>
       </c>
       <c r="R2">
-        <v>161.527322620668</v>
+        <v>420.444604944</v>
       </c>
       <c r="S2">
-        <v>0.006474541050172226</v>
+        <v>0.01638742660481976</v>
       </c>
       <c r="T2">
-        <v>0.00647454105017223</v>
+        <v>0.01638742660481976</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.897648</v>
       </c>
       <c r="O3">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P3">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q3">
-        <v>67.60598064125688</v>
+        <v>133.7598097656889</v>
       </c>
       <c r="R3">
-        <v>608.4538257713119</v>
+        <v>1203.8382878912</v>
       </c>
       <c r="S3">
-        <v>0.02438881056266967</v>
+        <v>0.04692130985844498</v>
       </c>
       <c r="T3">
-        <v>0.02438881056266968</v>
+        <v>0.046921309858445</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N4">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O4">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P4">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q4">
-        <v>27.36416093855322</v>
+        <v>29.82078943942222</v>
       </c>
       <c r="R4">
-        <v>246.277448446979</v>
+        <v>268.3871049548</v>
       </c>
       <c r="S4">
-        <v>0.00987160205364299</v>
+        <v>0.01046076922478918</v>
       </c>
       <c r="T4">
-        <v>0.009871602053642993</v>
+        <v>0.01046076922478919</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H5">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I5">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J5">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N5">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O5">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P5">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q5">
-        <v>83.79064110067677</v>
+        <v>24.31320505293333</v>
       </c>
       <c r="R5">
-        <v>754.1157699060909</v>
+        <v>218.8188454764</v>
       </c>
       <c r="S5">
-        <v>0.03022741558284505</v>
+        <v>0.008528775795502267</v>
       </c>
       <c r="T5">
-        <v>0.03022741558284506</v>
+        <v>0.008528775795502271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H6">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I6">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J6">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N6">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O6">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P6">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q6">
-        <v>199.0921899141872</v>
+        <v>429.8839628673778</v>
       </c>
       <c r="R6">
-        <v>1791.829709227685</v>
+        <v>3868.9556658064</v>
       </c>
       <c r="S6">
-        <v>0.07182236923815875</v>
+        <v>0.1507980510753578</v>
       </c>
       <c r="T6">
-        <v>0.0718223692381588</v>
+        <v>0.1507980510753578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H7">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I7">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J7">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N7">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O7">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P7">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q7">
-        <v>22.42580007680833</v>
+        <v>25.68474412573334</v>
       </c>
       <c r="R7">
-        <v>201.832200691275</v>
+        <v>231.1626971316</v>
       </c>
       <c r="S7">
-        <v>0.008090091802555844</v>
+        <v>0.009009894974204336</v>
       </c>
       <c r="T7">
-        <v>0.008090091802555847</v>
+        <v>0.009009894974204338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N8">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O8">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P8">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q8">
-        <v>12.969261361852</v>
+        <v>17.06229734916</v>
       </c>
       <c r="R8">
-        <v>116.723352256668</v>
+        <v>153.56067614244</v>
       </c>
       <c r="S8">
-        <v>0.00467865202888475</v>
+        <v>0.005985245809030908</v>
       </c>
       <c r="T8">
-        <v>0.004678652028884752</v>
+        <v>0.005985245809030909</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.897648</v>
       </c>
       <c r="O9">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P9">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q9">
         <v>48.85363395503467</v>
@@ -1013,10 +1013,10 @@
         <v>439.682705595312</v>
       </c>
       <c r="S9">
-        <v>0.0176239145194832</v>
+        <v>0.01713725894594707</v>
       </c>
       <c r="T9">
-        <v>0.0176239145194832</v>
+        <v>0.01713725894594708</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J10">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N10">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O10">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P10">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q10">
-        <v>19.77397101999767</v>
+        <v>10.89156701161367</v>
       </c>
       <c r="R10">
-        <v>177.965739179979</v>
+        <v>98.02410310452301</v>
       </c>
       <c r="S10">
-        <v>0.007133446312058069</v>
+        <v>0.00382062886820158</v>
       </c>
       <c r="T10">
-        <v>0.00713344631205807</v>
+        <v>0.003820628868201581</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J11">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N11">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O11">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P11">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q11">
-        <v>60.54904122923233</v>
+        <v>8.880009787771</v>
       </c>
       <c r="R11">
-        <v>544.941371063091</v>
+        <v>79.920088089939</v>
       </c>
       <c r="S11">
-        <v>0.02184302457096299</v>
+        <v>0.003114999128123061</v>
       </c>
       <c r="T11">
-        <v>0.021843024570963</v>
+        <v>0.003114999128123062</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>231.698769</v>
       </c>
       <c r="I12">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J12">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N12">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O12">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P12">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q12">
-        <v>143.8685879136317</v>
+        <v>157.0082508479293</v>
       </c>
       <c r="R12">
-        <v>1294.817291222685</v>
+        <v>1413.074257631364</v>
       </c>
       <c r="S12">
-        <v>0.05190049317032016</v>
+        <v>0.05507657943946843</v>
       </c>
       <c r="T12">
-        <v>0.05190049317032017</v>
+        <v>0.05507657943946844</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>231.698769</v>
       </c>
       <c r="I13">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J13">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N13">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O13">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P13">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q13">
-        <v>16.205398068475</v>
+        <v>9.380942526349001</v>
       </c>
       <c r="R13">
-        <v>145.848582616275</v>
+        <v>84.42848273714101</v>
       </c>
       <c r="S13">
-        <v>0.005846086098239339</v>
+        <v>0.00329072022316821</v>
       </c>
       <c r="T13">
-        <v>0.005846086098239341</v>
+        <v>0.003290720223168211</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H14">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I14">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J14">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N14">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O14">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P14">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q14">
-        <v>22.951237214388</v>
+        <v>38.50872080132</v>
       </c>
       <c r="R14">
-        <v>206.561134929492</v>
+        <v>346.57848721188</v>
       </c>
       <c r="S14">
-        <v>0.008279642885011434</v>
+        <v>0.01350838958380883</v>
       </c>
       <c r="T14">
-        <v>0.008279642885011438</v>
+        <v>0.01350838958380883</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H15">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I15">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J15">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.897648</v>
       </c>
       <c r="O15">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P15">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q15">
-        <v>86.45452585179201</v>
+        <v>110.2601198189138</v>
       </c>
       <c r="R15">
-        <v>778.090732666128</v>
+        <v>992.341078370224</v>
       </c>
       <c r="S15">
-        <v>0.03118841015669029</v>
+        <v>0.03867790524011051</v>
       </c>
       <c r="T15">
-        <v>0.0311884101566903</v>
+        <v>0.03867790524011052</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H16">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I16">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J16">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N16">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O16">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P16">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q16">
-        <v>34.99328812088901</v>
+        <v>24.58170225006344</v>
       </c>
       <c r="R16">
-        <v>314.9395930880011</v>
+        <v>221.235320250571</v>
       </c>
       <c r="S16">
-        <v>0.01262380438609394</v>
+        <v>0.008622961337517726</v>
       </c>
       <c r="T16">
-        <v>0.01262380438609395</v>
+        <v>0.008622961337517727</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H17">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I17">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J17">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N17">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O17">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P17">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q17">
-        <v>107.151469122481</v>
+        <v>20.04172185213367</v>
       </c>
       <c r="R17">
-        <v>964.363222102329</v>
+        <v>180.375496669203</v>
       </c>
       <c r="S17">
-        <v>0.03865481806716314</v>
+        <v>0.00703039158599306</v>
       </c>
       <c r="T17">
-        <v>0.03865481806716315</v>
+        <v>0.007030391585993062</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H18">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I18">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J18">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N18">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O18">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P18">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q18">
-        <v>254.599086006335</v>
+        <v>354.3594846390475</v>
       </c>
       <c r="R18">
-        <v>2291.391774057015</v>
+        <v>3189.235361751428</v>
       </c>
       <c r="S18">
-        <v>0.09184644345278603</v>
+        <v>0.124304985250455</v>
       </c>
       <c r="T18">
-        <v>0.09184644345278606</v>
+        <v>0.124304985250455</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H19">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I19">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J19">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N19">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O19">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P19">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q19">
-        <v>28.678112411025</v>
+        <v>21.17230108043967</v>
       </c>
       <c r="R19">
-        <v>258.103011699225</v>
+        <v>190.550709723957</v>
       </c>
       <c r="S19">
-        <v>0.01034560913477242</v>
+        <v>0.007426984990123896</v>
       </c>
       <c r="T19">
-        <v>0.01034560913477243</v>
+        <v>0.007426984990123896</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H20">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I20">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J20">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N20">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O20">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P20">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q20">
-        <v>7.649049757510667</v>
+        <v>6.303896601799999</v>
       </c>
       <c r="R20">
-        <v>68.84144781759601</v>
+        <v>56.7350694162</v>
       </c>
       <c r="S20">
-        <v>0.002759389387608679</v>
+        <v>0.002211330042161359</v>
       </c>
       <c r="T20">
-        <v>0.00275938938760868</v>
+        <v>0.00221133004216136</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H21">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I21">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J21">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.897648</v>
       </c>
       <c r="O21">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P21">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q21">
-        <v>28.81304235694045</v>
+        <v>18.04963603508444</v>
       </c>
       <c r="R21">
-        <v>259.317381212464</v>
+        <v>162.44672431576</v>
       </c>
       <c r="S21">
-        <v>0.01039428501904996</v>
+        <v>0.006331592177933819</v>
       </c>
       <c r="T21">
-        <v>0.01039428501904996</v>
+        <v>0.006331592177933821</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H22">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I22">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J22">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N22">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O22">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P22">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q22">
-        <v>11.66235177281811</v>
+        <v>4.02403679104611</v>
       </c>
       <c r="R22">
-        <v>104.961165955363</v>
+        <v>36.216331119415</v>
       </c>
       <c r="S22">
-        <v>0.004207185302314813</v>
+        <v>0.001411583026958597</v>
       </c>
       <c r="T22">
-        <v>0.004207185302314814</v>
+        <v>0.001411583026958597</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H23">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I23">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J23">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N23">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O23">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P23">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q23">
-        <v>35.71079464049189</v>
+        <v>3.280839759121666</v>
       </c>
       <c r="R23">
-        <v>321.397151764427</v>
+        <v>29.527557832095</v>
       </c>
       <c r="S23">
-        <v>0.0128826443647185</v>
+        <v>0.001150878572594543</v>
       </c>
       <c r="T23">
-        <v>0.0128826443647185</v>
+        <v>0.001150878572594544</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H24">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I24">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J24">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N24">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O24">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P24">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q24">
-        <v>84.85124609571612</v>
+        <v>58.00882253546888</v>
       </c>
       <c r="R24">
-        <v>763.6612148614449</v>
+        <v>522.0794028192199</v>
       </c>
       <c r="S24">
-        <v>0.03061002809819477</v>
+        <v>0.02034878743830623</v>
       </c>
       <c r="T24">
-        <v>0.03061002809819478</v>
+        <v>0.02034878743830624</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H25">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I25">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J25">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N25">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O25">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P25">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q25">
-        <v>9.557668143741669</v>
+        <v>3.465916136811666</v>
       </c>
       <c r="R25">
-        <v>86.019013293675</v>
+        <v>31.193245231305</v>
       </c>
       <c r="S25">
-        <v>0.003447922144869054</v>
+        <v>0.001215801108596076</v>
       </c>
       <c r="T25">
-        <v>0.003447922144869056</v>
+        <v>0.001215801108596076</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H26">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I26">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J26">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N26">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O26">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P26">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q26">
-        <v>33.34940592798933</v>
+        <v>50.8842848892</v>
       </c>
       <c r="R26">
-        <v>300.144653351904</v>
+        <v>457.9585640028</v>
       </c>
       <c r="S26">
-        <v>0.01203077502671343</v>
+        <v>0.01784958652672951</v>
       </c>
       <c r="T26">
-        <v>0.01203077502671343</v>
+        <v>0.01784958652672952</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H27">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I27">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J27">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.897648</v>
       </c>
       <c r="O27">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P27">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q27">
-        <v>125.6231657583929</v>
+        <v>145.6944617228267</v>
       </c>
       <c r="R27">
-        <v>1130.608491825536</v>
+        <v>1311.25015550544</v>
       </c>
       <c r="S27">
-        <v>0.04531846979961705</v>
+        <v>0.05110784020350535</v>
       </c>
       <c r="T27">
-        <v>0.04531846979961707</v>
+        <v>0.05110784020350537</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H28">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I28">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J28">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N28">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O28">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P28">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q28">
-        <v>50.84716607639022</v>
+        <v>32.48153442455667</v>
       </c>
       <c r="R28">
-        <v>457.624494687512</v>
+        <v>292.33380982101</v>
       </c>
       <c r="S28">
-        <v>0.01834307984771552</v>
+        <v>0.01139412611368199</v>
       </c>
       <c r="T28">
-        <v>0.01834307984771553</v>
+        <v>0.01139412611368199</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H29">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I29">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J29">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N29">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O29">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P29">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q29">
-        <v>155.6969589990498</v>
+        <v>26.48253858277</v>
       </c>
       <c r="R29">
-        <v>1401.272630991448</v>
+        <v>238.34284724493</v>
       </c>
       <c r="S29">
-        <v>0.0561675698243518</v>
+        <v>0.009289751539397878</v>
       </c>
       <c r="T29">
-        <v>0.0561675698243518</v>
+        <v>0.009289751539397881</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H30">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I30">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J30">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N30">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O30">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P30">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q30">
-        <v>369.9464298507422</v>
+        <v>468.2401439038534</v>
       </c>
       <c r="R30">
-        <v>3329.51786865668</v>
+        <v>4214.16129513468</v>
       </c>
       <c r="S30">
-        <v>0.1334579176336902</v>
+        <v>0.1642529315701171</v>
       </c>
       <c r="T30">
-        <v>0.1334579176336902</v>
+        <v>0.1642529315701171</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H31">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I31">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J31">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N31">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O31">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P31">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q31">
-        <v>41.67086955313334</v>
+        <v>27.97645254163</v>
       </c>
       <c r="R31">
-        <v>375.0378259782</v>
+        <v>251.78807287467</v>
       </c>
       <c r="S31">
-        <v>0.01503273725006637</v>
+        <v>0.009813798335579155</v>
       </c>
       <c r="T31">
-        <v>0.01503273725006637</v>
+        <v>0.009813798335579157</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H32">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I32">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J32">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N32">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O32">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P32">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q32">
-        <v>24.08965810138133</v>
+        <v>33.48163347508</v>
       </c>
       <c r="R32">
-        <v>216.806922912432</v>
+        <v>301.33470127572</v>
       </c>
       <c r="S32">
-        <v>0.008690327429338909</v>
+        <v>0.01174494866285385</v>
       </c>
       <c r="T32">
-        <v>0.008690327429338913</v>
+        <v>0.01174494866285385</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H33">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I33">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J33">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.897648</v>
       </c>
       <c r="O33">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P33">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q33">
-        <v>90.74281920545421</v>
+        <v>95.86630877047288</v>
       </c>
       <c r="R33">
-        <v>816.6853728490879</v>
+        <v>862.7967789342559</v>
       </c>
       <c r="S33">
-        <v>0.03273540900572108</v>
+        <v>0.03362873187906222</v>
       </c>
       <c r="T33">
-        <v>0.0327354090057211</v>
+        <v>0.03362873187906223</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H34">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I34">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J34">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N34">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O34">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P34">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q34">
-        <v>36.72901546879956</v>
+        <v>21.37270539773322</v>
       </c>
       <c r="R34">
-        <v>330.561139219196</v>
+        <v>192.354348579599</v>
       </c>
       <c r="S34">
-        <v>0.01324996682135639</v>
+        <v>0.007497284380390472</v>
       </c>
       <c r="T34">
-        <v>0.0132499668213564</v>
+        <v>0.007497284380390473</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H35">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I35">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J35">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M35">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N35">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O35">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P35">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q35">
-        <v>112.4663665017204</v>
+        <v>17.42539277595633</v>
       </c>
       <c r="R35">
-        <v>1012.197298515484</v>
+        <v>156.828534983607</v>
       </c>
       <c r="S35">
-        <v>0.04057216360542452</v>
+        <v>0.006112615256241837</v>
       </c>
       <c r="T35">
-        <v>0.04057216360542454</v>
+        <v>0.006112615256241839</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H36">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I36">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J36">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N36">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O36">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P36">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q36">
-        <v>267.2276390822155</v>
+        <v>308.0999351891258</v>
       </c>
       <c r="R36">
-        <v>2405.04875173994</v>
+        <v>2772.899416702131</v>
       </c>
       <c r="S36">
-        <v>0.09640218520413507</v>
+        <v>0.1080776995100366</v>
       </c>
       <c r="T36">
-        <v>0.0964021852041351</v>
+        <v>0.1080776995100367</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H37">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I37">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J37">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N37">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O37">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P37">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q37">
-        <v>30.10059616923333</v>
+        <v>18.40838152627033</v>
       </c>
       <c r="R37">
-        <v>270.9053655231</v>
+        <v>165.675433736433</v>
       </c>
       <c r="S37">
-        <v>0.01085876916260354</v>
+        <v>0.006457435720786787</v>
       </c>
       <c r="T37">
-        <v>0.01085876916260354</v>
+        <v>0.006457435720786788</v>
       </c>
     </row>
   </sheetData>
